--- a/Doc/现场选房接口说明.xlsx
+++ b/Doc/现场选房接口说明.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HouseSelection\HouseSelection\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\46667\source\repos\HouseSelection\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SelectHouseLogin" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="GetHouseEstates" sheetId="4" r:id="rId4"/>
     <sheet name="GetValidBuildings" sheetId="5" r:id="rId5"/>
     <sheet name="GetValidHouses" sheetId="6" r:id="rId6"/>
+    <sheet name="ConfirmSelectHouse" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="164">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -549,17 +550,40 @@
   </si>
   <si>
     <t>是否可选(0-否;1-是)</t>
+  </si>
+  <si>
+    <t>ConfirmSelectHouse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxx.xxx.xxx.xxx/api/ConfirmSelectHouse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认选房接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseId</t>
+  </si>
+  <si>
+    <t>摇号结果ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -568,7 +592,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -576,7 +600,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,28 +706,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -725,6 +738,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,75 +1046,75 @@
       <selection activeCell="A15" sqref="A12:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1094,11 +1125,11 @@
       <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1113,33 +1144,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1152,7 +1183,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1165,16 +1196,16 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1185,11 +1216,11 @@
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1200,11 +1231,11 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,16 +1250,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1239,11 +1270,11 @@
       <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1254,11 +1285,11 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1273,44 +1304,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="b">
+      <c r="E20" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1325,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1340,7 +1371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1366,6 +1397,7 @@
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A12:E12"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -1381,75 +1413,75 @@
       <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1460,11 +1492,11 @@
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,37 +1507,37 @@
       <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1516,11 +1548,11 @@
       <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1531,132 +1563,132 @@
       <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="E20" s="16"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1666,6 +1698,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -1682,74 +1715,74 @@
       <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1760,11 +1793,11 @@
       <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1775,42 +1808,42 @@
       <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1820,6 +1853,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -1835,75 +1869,75 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -1914,59 +1948,59 @@
       <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -1977,11 +2011,11 @@
       <c r="D11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1992,11 +2026,11 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2011,30 +2045,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -2050,75 +2085,75 @@
       <selection activeCell="E10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -2129,11 +2164,11 @@
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -2144,48 +2179,48 @@
       <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2195,6 +2230,7 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A8:E8"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
@@ -2206,79 +2242,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -2289,11 +2325,11 @@
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
@@ -2304,11 +2340,11 @@
       <c r="D7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -2319,11 +2355,11 @@
       <c r="D8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -2334,59 +2370,59 @@
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" s="17" customFormat="1">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" s="17" customFormat="1">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>122</v>
       </c>
@@ -2397,11 +2433,11 @@
       <c r="D14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="17" customFormat="1">
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
@@ -2412,11 +2448,11 @@
       <c r="D15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="17" customFormat="1">
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>153</v>
       </c>
@@ -2425,18 +2461,18 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" s="17" customFormat="1">
-      <c r="A17" s="7" t="s">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" s="17" customFormat="1">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
@@ -2447,11 +2483,11 @@
       <c r="D18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="17" customFormat="1">
+    <row r="19" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
@@ -2462,11 +2498,11 @@
       <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="17" customFormat="1">
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
@@ -2477,11 +2513,11 @@
       <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="17" customFormat="1">
+    <row r="21" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>119</v>
       </c>
@@ -2492,11 +2528,11 @@
       <c r="D21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="17" customFormat="1">
+    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>122</v>
       </c>
@@ -2507,11 +2543,11 @@
       <c r="D22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="17" customFormat="1">
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
@@ -2522,11 +2558,11 @@
       <c r="D23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="17" customFormat="1">
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>126</v>
       </c>
@@ -2537,11 +2573,11 @@
       <c r="D24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="8">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="17" customFormat="1">
+    <row r="25" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -2552,11 +2588,11 @@
       <c r="D25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="17" customFormat="1">
+    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>131</v>
       </c>
@@ -2567,129 +2603,129 @@
       <c r="D26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="17" customFormat="1">
+    <row r="27" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="17" customFormat="1">
+    <row r="28" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="17" customFormat="1">
+    <row r="29" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="7">
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="17" customFormat="1">
+    <row r="30" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="7">
         <v>240000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" ht="15.75">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="17" customFormat="1">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2703,6 +2739,162 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
